--- a/openpyxl test/my work test/a.xlsx
+++ b/openpyxl test/my work test/a.xlsx
@@ -4,11 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$8</definedName>
+  </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
@@ -95,7 +98,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -152,7 +155,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -441,12 +444,12 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -466,7 +469,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -480,7 +483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -494,7 +497,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -508,7 +511,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -528,7 +531,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -545,7 +548,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -562,7 +565,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -583,6 +586,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F8"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/openpyxl test/my work test/a.xlsx
+++ b/openpyxl test/my work test/a.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\教程\python\练习\Hello-World\openpyxl test\my work test\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,93 +17,68 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$8</definedName>
   </definedNames>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
   <si>
     <t>a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>v</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>vb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cga</t>
   </si>
   <si>
     <t>lte</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fas</t>
   </si>
   <si>
     <t>afd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fsda</t>
   </si>
   <si>
     <t>dfa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fsda</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fas</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>adf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>daf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>gasd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>fdsa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cga</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>啊发多少</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>发达省份</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -123,7 +103,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -131,12 +111,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -444,144 +441,144 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="2"/>
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="D6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="2">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="C7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="C8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="D8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8">
+      <c r="E8" s="2"/>
+      <c r="F8" s="1">
         <v>7</v>
       </c>
     </row>

--- a/openpyxl test/my work test/a.xlsx
+++ b/openpyxl test/my work test/a.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\教程\python\练习\Hello-World\openpyxl test\my work test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\资料\Python\练习\Hello-World\openpyxl test\my work test\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="22">
   <si>
     <t>a</t>
   </si>
@@ -73,12 +73,32 @@
   </si>
   <si>
     <t>发</t>
+  </si>
+  <si>
+    <t>fds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>df</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -441,36 +461,44 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
+      <c r="B1" s="2">
+        <v>111</v>
+      </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2"/>
+      <c r="E1" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+      <c r="C2" s="1">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
@@ -478,23 +506,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1"/>
+      <c r="C3" s="1">
+        <v>11</v>
+      </c>
       <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="F3" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -504,13 +536,17 @@
       <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="F4" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -530,11 +566,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="C6" s="1" t="s">
         <v>15</v>
       </c>
@@ -548,7 +586,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -558,13 +596,17 @@
       <c r="C7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="E7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F7" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -577,7 +619,9 @@
       <c r="D8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="F8" s="1">
         <v>7</v>
       </c>
